--- a/(SI204) Introducción a los Sistemas Operativos/Práctica/Práctica 2/Procesos.xlsx
+++ b/(SI204) Introducción a los Sistemas Operativos/Práctica/Práctica 2/Procesos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Franco\Estudio\UNLP\Materias\(SI204) Introducción a los Sistemas Operativos\Práctica\Práctica 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2669EC-DBEA-4F52-AD5A-4B64C449B60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF592DC3-585A-4349-8E4D-A2528A9A8704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="79">
   <si>
     <t>Proceso</t>
   </si>
@@ -251,6 +251,18 @@
   </si>
   <si>
     <t>(R1, 2, 3)</t>
+  </si>
+  <si>
+    <t>(R1, 5, 3)</t>
+  </si>
+  <si>
+    <t>(R2, 7, 2)</t>
+  </si>
+  <si>
+    <t>11&lt;</t>
+  </si>
+  <si>
+    <t>????</t>
   </si>
 </sst>
 </file>
@@ -741,7 +753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -864,6 +876,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -900,10 +918,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1186,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB163"/>
+  <dimension ref="A1:BB177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B132" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA166" sqref="AA166"/>
+    <sheetView tabSelected="1" topLeftCell="B154" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL177" sqref="AL177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2733,10 +2748,10 @@
       </c>
     </row>
     <row r="19" spans="1:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="53"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -3540,10 +3555,10 @@
       </c>
     </row>
     <row r="29" spans="1:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="53"/>
+      <c r="C29" s="55"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="25"/>
@@ -6750,58 +6765,58 @@
       <c r="A74" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B74" s="44" t="s">
+      <c r="B74" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C74" s="45"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="45"/>
-      <c r="F74" s="45"/>
-      <c r="G74" s="45"/>
-      <c r="H74" s="45"/>
-      <c r="I74" s="45"/>
-      <c r="J74" s="45"/>
-      <c r="K74" s="46"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="47"/>
+      <c r="G74" s="47"/>
+      <c r="H74" s="47"/>
+      <c r="I74" s="47"/>
+      <c r="J74" s="47"/>
+      <c r="K74" s="48"/>
       <c r="L74" s="24"/>
       <c r="M74" s="24"/>
     </row>
     <row r="75" spans="1:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="47"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="48"/>
-      <c r="I75" s="48"/>
-      <c r="J75" s="48"/>
-      <c r="K75" s="49"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="50"/>
+      <c r="K75" s="51"/>
       <c r="L75" s="24"/>
       <c r="M75" s="24"/>
     </row>
     <row r="76" spans="1:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="47"/>
-      <c r="C76" s="48"/>
-      <c r="D76" s="48"/>
-      <c r="E76" s="48"/>
-      <c r="F76" s="48"/>
-      <c r="G76" s="48"/>
-      <c r="H76" s="48"/>
-      <c r="I76" s="48"/>
-      <c r="J76" s="48"/>
-      <c r="K76" s="49"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="50"/>
+      <c r="K76" s="51"/>
     </row>
     <row r="77" spans="1:54" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="50"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="51"/>
-      <c r="F77" s="51"/>
-      <c r="G77" s="51"/>
-      <c r="H77" s="51"/>
-      <c r="I77" s="51"/>
-      <c r="J77" s="51"/>
-      <c r="K77" s="52"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="53"/>
+      <c r="G77" s="53"/>
+      <c r="H77" s="53"/>
+      <c r="I77" s="53"/>
+      <c r="J77" s="53"/>
+      <c r="K77" s="54"/>
     </row>
     <row r="78" spans="1:54" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="23"/>
@@ -6816,10 +6831,10 @@
       <c r="K78" s="23"/>
     </row>
     <row r="79" spans="1:54" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="54" t="s">
+      <c r="B79" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C79" s="55"/>
+      <c r="C79" s="57"/>
     </row>
     <row r="80" spans="1:54" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
@@ -7727,10 +7742,10 @@
       <c r="BB91" s="26"/>
     </row>
     <row r="92" spans="2:54" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="54" t="s">
+      <c r="B92" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C92" s="55"/>
+      <c r="C92" s="57"/>
     </row>
     <row r="93" spans="2:54" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="2" t="s">
@@ -12496,10 +12511,10 @@
       <c r="H154" s="39">
         <v>2</v>
       </c>
-      <c r="I154" s="56">
-        <v>4</v>
-      </c>
-      <c r="J154" s="57"/>
+      <c r="I154" s="44">
+        <v>4</v>
+      </c>
+      <c r="J154" s="45"/>
     </row>
     <row r="155" spans="2:54" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F155" s="41"/>
@@ -12986,9 +13001,9 @@
       <c r="G162" s="39">
         <v>2</v>
       </c>
-      <c r="H162" s="56"/>
-      <c r="I162" s="56"/>
-      <c r="J162" s="57"/>
+      <c r="H162" s="44"/>
+      <c r="I162" s="44"/>
+      <c r="J162" s="45"/>
     </row>
     <row r="163" spans="2:54" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F163" s="41"/>
@@ -12996,6 +13011,1069 @@
       <c r="H163" s="42"/>
       <c r="I163" s="42"/>
       <c r="J163" s="43"/>
+    </row>
+    <row r="164" spans="2:54" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="165" spans="2:54" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F165" s="3">
+        <v>0</v>
+      </c>
+      <c r="G165" s="3">
+        <v>1</v>
+      </c>
+      <c r="H165" s="3">
+        <v>2</v>
+      </c>
+      <c r="I165" s="3">
+        <v>3</v>
+      </c>
+      <c r="J165" s="3">
+        <v>4</v>
+      </c>
+      <c r="K165" s="3">
+        <v>5</v>
+      </c>
+      <c r="L165" s="3">
+        <v>6</v>
+      </c>
+      <c r="M165" s="3">
+        <v>7</v>
+      </c>
+      <c r="N165" s="3">
+        <v>8</v>
+      </c>
+      <c r="O165" s="3">
+        <v>9</v>
+      </c>
+      <c r="P165" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q165" s="3">
+        <v>11</v>
+      </c>
+      <c r="R165" s="3">
+        <v>12</v>
+      </c>
+      <c r="S165" s="3">
+        <v>13</v>
+      </c>
+      <c r="T165" s="3">
+        <v>14</v>
+      </c>
+      <c r="U165" s="3">
+        <v>15</v>
+      </c>
+      <c r="V165" s="3">
+        <v>16</v>
+      </c>
+      <c r="W165" s="3">
+        <v>17</v>
+      </c>
+      <c r="X165" s="3">
+        <v>18</v>
+      </c>
+      <c r="Y165" s="3">
+        <v>19</v>
+      </c>
+      <c r="Z165" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA165" s="3">
+        <v>21</v>
+      </c>
+      <c r="AB165" s="3">
+        <v>22</v>
+      </c>
+      <c r="AC165" s="3">
+        <v>23</v>
+      </c>
+      <c r="AD165" s="3">
+        <v>24</v>
+      </c>
+      <c r="AE165" s="3">
+        <v>25</v>
+      </c>
+      <c r="AF165" s="3">
+        <v>26</v>
+      </c>
+      <c r="AG165" s="3">
+        <v>27</v>
+      </c>
+      <c r="AH165" s="3">
+        <v>28</v>
+      </c>
+      <c r="AI165" s="3">
+        <v>29</v>
+      </c>
+      <c r="AJ165" s="3">
+        <v>30</v>
+      </c>
+      <c r="AK165" s="3">
+        <v>31</v>
+      </c>
+      <c r="AL165" s="3">
+        <v>32</v>
+      </c>
+      <c r="AM165" s="3">
+        <v>33</v>
+      </c>
+      <c r="AN165" s="3">
+        <v>34</v>
+      </c>
+      <c r="AO165" s="3">
+        <v>35</v>
+      </c>
+      <c r="AP165" s="3">
+        <v>36</v>
+      </c>
+      <c r="AQ165" s="3">
+        <v>37</v>
+      </c>
+      <c r="AR165" s="3">
+        <v>38</v>
+      </c>
+      <c r="AS165" s="3">
+        <v>39</v>
+      </c>
+      <c r="AT165" s="3">
+        <v>40</v>
+      </c>
+      <c r="AU165" s="3">
+        <v>41</v>
+      </c>
+      <c r="AV165" s="3">
+        <v>42</v>
+      </c>
+      <c r="AW165" s="3">
+        <v>43</v>
+      </c>
+      <c r="AX165" s="3">
+        <v>44</v>
+      </c>
+      <c r="AY165" s="3">
+        <v>45</v>
+      </c>
+      <c r="AZ165" s="14">
+        <v>46</v>
+      </c>
+      <c r="BA165" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB165" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="2:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="8">
+        <v>1</v>
+      </c>
+      <c r="C166" s="7">
+        <v>0</v>
+      </c>
+      <c r="D166" s="7">
+        <v>11</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F166" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G166" s="7">
+        <v>2</v>
+      </c>
+      <c r="H166" s="7">
+        <v>3</v>
+      </c>
+      <c r="I166" s="7"/>
+      <c r="J166" s="7"/>
+      <c r="K166" s="7"/>
+      <c r="L166" s="7">
+        <v>4</v>
+      </c>
+      <c r="M166" s="58">
+        <v>5</v>
+      </c>
+      <c r="N166" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O166" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P166" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q166" s="7"/>
+      <c r="R166" s="7"/>
+      <c r="S166" s="7"/>
+      <c r="T166" s="7">
+        <v>6</v>
+      </c>
+      <c r="U166" s="7">
+        <v>7</v>
+      </c>
+      <c r="V166" s="7">
+        <v>8</v>
+      </c>
+      <c r="W166" s="7"/>
+      <c r="X166" s="7"/>
+      <c r="Y166" s="7"/>
+      <c r="Z166" s="7"/>
+      <c r="AA166" s="7">
+        <v>9</v>
+      </c>
+      <c r="AB166" s="7">
+        <v>10</v>
+      </c>
+      <c r="AC166" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD166" s="7"/>
+      <c r="AE166" s="7"/>
+      <c r="AF166" s="7"/>
+      <c r="AG166" s="7"/>
+      <c r="AH166" s="7"/>
+      <c r="AI166" s="7"/>
+      <c r="AJ166" s="7"/>
+      <c r="AK166" s="7"/>
+      <c r="AL166" s="7"/>
+      <c r="AM166" s="7"/>
+      <c r="AN166" s="7"/>
+      <c r="AO166" s="7"/>
+      <c r="AP166" s="7"/>
+      <c r="AQ166" s="7"/>
+      <c r="AR166" s="7"/>
+      <c r="AS166" s="7"/>
+      <c r="AT166" s="7"/>
+      <c r="AU166" s="7"/>
+      <c r="AV166" s="7"/>
+      <c r="AW166" s="7"/>
+      <c r="AX166" s="7"/>
+      <c r="AY166" s="7"/>
+      <c r="AZ166" s="15"/>
+      <c r="BA166" s="8">
+        <v>24</v>
+      </c>
+      <c r="BB166" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="2:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="9">
+        <v>2</v>
+      </c>
+      <c r="C167" s="6">
+        <v>2</v>
+      </c>
+      <c r="D167" s="6">
+        <v>9</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I167" s="6">
+        <v>1</v>
+      </c>
+      <c r="J167" s="6">
+        <v>2</v>
+      </c>
+      <c r="K167" s="6">
+        <v>3</v>
+      </c>
+      <c r="L167" s="6"/>
+      <c r="M167" s="6"/>
+      <c r="N167" s="6"/>
+      <c r="O167" s="6"/>
+      <c r="P167" s="6"/>
+      <c r="Q167" s="6">
+        <v>4</v>
+      </c>
+      <c r="R167" s="6">
+        <v>5</v>
+      </c>
+      <c r="S167" s="6">
+        <v>6</v>
+      </c>
+      <c r="T167" s="6"/>
+      <c r="U167" s="6"/>
+      <c r="V167" s="6"/>
+      <c r="W167" s="6"/>
+      <c r="X167" s="6"/>
+      <c r="Y167" s="6"/>
+      <c r="Z167" s="6">
+        <v>7</v>
+      </c>
+      <c r="AA167" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB167" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC167" s="6"/>
+      <c r="AD167" s="6"/>
+      <c r="AE167" s="6"/>
+      <c r="AF167" s="6"/>
+      <c r="AG167" s="6">
+        <v>8</v>
+      </c>
+      <c r="AH167" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI167" s="6"/>
+      <c r="AJ167" s="6"/>
+      <c r="AK167" s="6"/>
+      <c r="AL167" s="6"/>
+      <c r="AM167" s="6"/>
+      <c r="AN167" s="6"/>
+      <c r="AO167" s="6"/>
+      <c r="AP167" s="6"/>
+      <c r="AQ167" s="6"/>
+      <c r="AR167" s="6"/>
+      <c r="AS167" s="6"/>
+      <c r="AT167" s="6"/>
+      <c r="AU167" s="6"/>
+      <c r="AV167" s="6"/>
+      <c r="AW167" s="6"/>
+      <c r="AX167" s="6"/>
+      <c r="AY167" s="6"/>
+      <c r="AZ167" s="16"/>
+      <c r="BA167" s="9">
+        <v>27</v>
+      </c>
+      <c r="BB167" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" spans="2:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="9">
+        <v>3</v>
+      </c>
+      <c r="C168" s="6">
+        <v>3</v>
+      </c>
+      <c r="D168" s="6">
+        <v>12</v>
+      </c>
+      <c r="E168" s="6"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
+      <c r="H168" s="6"/>
+      <c r="I168" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J168" s="6"/>
+      <c r="K168" s="6"/>
+      <c r="L168" s="6"/>
+      <c r="M168" s="6"/>
+      <c r="N168" s="6">
+        <v>1</v>
+      </c>
+      <c r="O168" s="6">
+        <v>2</v>
+      </c>
+      <c r="P168" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q168" s="6"/>
+      <c r="R168" s="6"/>
+      <c r="S168" s="6"/>
+      <c r="T168" s="6"/>
+      <c r="U168" s="6"/>
+      <c r="V168" s="6"/>
+      <c r="W168" s="6">
+        <v>4</v>
+      </c>
+      <c r="X168" s="6">
+        <v>5</v>
+      </c>
+      <c r="Y168" s="6">
+        <v>6</v>
+      </c>
+      <c r="Z168" s="6"/>
+      <c r="AA168" s="6"/>
+      <c r="AB168" s="6"/>
+      <c r="AC168" s="6"/>
+      <c r="AD168" s="6">
+        <v>7</v>
+      </c>
+      <c r="AE168" s="6">
+        <v>8</v>
+      </c>
+      <c r="AF168" s="6">
+        <v>9</v>
+      </c>
+      <c r="AG168" s="6"/>
+      <c r="AH168" s="6"/>
+      <c r="AI168" s="6">
+        <v>10</v>
+      </c>
+      <c r="AJ168" s="6">
+        <v>11</v>
+      </c>
+      <c r="AK168" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL168" s="6"/>
+      <c r="AM168" s="6"/>
+      <c r="AN168" s="6"/>
+      <c r="AO168" s="6"/>
+      <c r="AP168" s="6"/>
+      <c r="AQ168" s="6"/>
+      <c r="AR168" s="6"/>
+      <c r="AS168" s="6"/>
+      <c r="AT168" s="6"/>
+      <c r="AU168" s="6"/>
+      <c r="AV168" s="6"/>
+      <c r="AW168" s="6"/>
+      <c r="AX168" s="6"/>
+      <c r="AY168" s="6"/>
+      <c r="AZ168" s="16"/>
+      <c r="BA168" s="9">
+        <v>29</v>
+      </c>
+      <c r="BB168" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="2:54" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C169" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D169" s="10"/>
+      <c r="E169" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F169" s="13">
+        <v>1</v>
+      </c>
+      <c r="G169" s="13">
+        <v>2</v>
+      </c>
+      <c r="H169" s="13">
+        <v>1</v>
+      </c>
+      <c r="I169" s="13">
+        <v>3</v>
+      </c>
+      <c r="J169" s="13">
+        <v>2</v>
+      </c>
+      <c r="K169" s="13">
+        <v>1</v>
+      </c>
+      <c r="L169" s="13">
+        <v>3</v>
+      </c>
+      <c r="M169" s="13">
+        <v>2</v>
+      </c>
+      <c r="N169" s="13">
+        <v>1</v>
+      </c>
+      <c r="O169" s="13">
+        <v>3</v>
+      </c>
+      <c r="P169" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q169" s="13">
+        <v>3</v>
+      </c>
+      <c r="R169" s="10"/>
+      <c r="S169" s="10"/>
+      <c r="T169" s="10"/>
+      <c r="U169" s="10"/>
+      <c r="V169" s="10"/>
+      <c r="W169" s="10"/>
+      <c r="X169" s="10"/>
+      <c r="Y169" s="10"/>
+      <c r="Z169" s="10"/>
+      <c r="AA169" s="10"/>
+      <c r="AB169" s="10"/>
+      <c r="AC169" s="10"/>
+      <c r="AD169" s="10"/>
+      <c r="AE169" s="10"/>
+      <c r="AF169" s="10"/>
+      <c r="AG169" s="10"/>
+      <c r="AH169" s="10"/>
+      <c r="AI169" s="10"/>
+      <c r="AJ169" s="10"/>
+      <c r="AK169" s="10"/>
+      <c r="AL169" s="10"/>
+      <c r="AM169" s="10"/>
+      <c r="AN169" s="10"/>
+      <c r="AO169" s="10"/>
+      <c r="AP169" s="10"/>
+      <c r="AQ169" s="10"/>
+      <c r="AR169" s="10"/>
+      <c r="AS169" s="10"/>
+      <c r="AT169" s="10"/>
+      <c r="AU169" s="10"/>
+      <c r="AV169" s="10"/>
+      <c r="AW169" s="10"/>
+      <c r="AX169" s="10"/>
+      <c r="AY169" s="10"/>
+      <c r="AZ169" s="17"/>
+      <c r="BA169" s="21">
+        <f>AVERAGE(BA166:BA168)</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="BB169" s="22">
+        <f>AVERAGE(BB166:BB168)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="2:54" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="171" spans="2:54" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F171" s="3">
+        <v>0</v>
+      </c>
+      <c r="G171" s="3">
+        <v>1</v>
+      </c>
+      <c r="H171" s="3">
+        <v>2</v>
+      </c>
+      <c r="I171" s="3">
+        <v>3</v>
+      </c>
+      <c r="J171" s="3">
+        <v>4</v>
+      </c>
+      <c r="K171" s="3">
+        <v>5</v>
+      </c>
+      <c r="L171" s="3">
+        <v>6</v>
+      </c>
+      <c r="M171" s="3">
+        <v>7</v>
+      </c>
+      <c r="N171" s="3">
+        <v>8</v>
+      </c>
+      <c r="O171" s="3">
+        <v>9</v>
+      </c>
+      <c r="P171" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q171" s="3">
+        <v>11</v>
+      </c>
+      <c r="R171" s="3">
+        <v>12</v>
+      </c>
+      <c r="S171" s="3">
+        <v>13</v>
+      </c>
+      <c r="T171" s="3">
+        <v>14</v>
+      </c>
+      <c r="U171" s="3">
+        <v>15</v>
+      </c>
+      <c r="V171" s="3">
+        <v>16</v>
+      </c>
+      <c r="W171" s="3">
+        <v>17</v>
+      </c>
+      <c r="X171" s="3">
+        <v>18</v>
+      </c>
+      <c r="Y171" s="3">
+        <v>19</v>
+      </c>
+      <c r="Z171" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA171" s="3">
+        <v>21</v>
+      </c>
+      <c r="AB171" s="3">
+        <v>22</v>
+      </c>
+      <c r="AC171" s="3">
+        <v>23</v>
+      </c>
+      <c r="AD171" s="3">
+        <v>24</v>
+      </c>
+      <c r="AE171" s="3">
+        <v>25</v>
+      </c>
+      <c r="AF171" s="3">
+        <v>26</v>
+      </c>
+      <c r="AG171" s="3">
+        <v>27</v>
+      </c>
+      <c r="AH171" s="3">
+        <v>28</v>
+      </c>
+      <c r="AI171" s="3">
+        <v>29</v>
+      </c>
+      <c r="AJ171" s="3">
+        <v>30</v>
+      </c>
+      <c r="AK171" s="3">
+        <v>31</v>
+      </c>
+      <c r="AL171" s="3">
+        <v>32</v>
+      </c>
+      <c r="AM171" s="3">
+        <v>33</v>
+      </c>
+      <c r="AN171" s="3">
+        <v>34</v>
+      </c>
+      <c r="AO171" s="3">
+        <v>35</v>
+      </c>
+      <c r="AP171" s="3">
+        <v>36</v>
+      </c>
+      <c r="AQ171" s="3">
+        <v>37</v>
+      </c>
+      <c r="AR171" s="3">
+        <v>38</v>
+      </c>
+      <c r="AS171" s="3">
+        <v>39</v>
+      </c>
+      <c r="AT171" s="3">
+        <v>40</v>
+      </c>
+      <c r="AU171" s="3">
+        <v>41</v>
+      </c>
+      <c r="AV171" s="3">
+        <v>42</v>
+      </c>
+      <c r="AW171" s="3">
+        <v>43</v>
+      </c>
+      <c r="AX171" s="3">
+        <v>44</v>
+      </c>
+      <c r="AY171" s="3">
+        <v>45</v>
+      </c>
+      <c r="AZ171" s="14">
+        <v>46</v>
+      </c>
+      <c r="BA171" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB171" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="2:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="8">
+        <v>1</v>
+      </c>
+      <c r="C172" s="7">
+        <v>0</v>
+      </c>
+      <c r="D172" s="7">
+        <v>11</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F172" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G172" s="7">
+        <v>2</v>
+      </c>
+      <c r="H172" s="7">
+        <v>3</v>
+      </c>
+      <c r="I172" s="7"/>
+      <c r="J172" s="7"/>
+      <c r="K172" s="7"/>
+      <c r="L172" s="7">
+        <v>4</v>
+      </c>
+      <c r="M172" s="58">
+        <v>5</v>
+      </c>
+      <c r="N172" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O172" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P172" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q172" s="7"/>
+      <c r="R172" s="7"/>
+      <c r="S172" s="7"/>
+      <c r="T172" s="7">
+        <v>6</v>
+      </c>
+      <c r="U172" s="7">
+        <v>7</v>
+      </c>
+      <c r="V172" s="7">
+        <v>8</v>
+      </c>
+      <c r="W172" s="7"/>
+      <c r="X172" s="7"/>
+      <c r="Y172" s="7"/>
+      <c r="Z172" s="7"/>
+      <c r="AA172" s="7">
+        <v>9</v>
+      </c>
+      <c r="AB172" s="7">
+        <v>10</v>
+      </c>
+      <c r="AC172" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD172" s="7"/>
+      <c r="AE172" s="7"/>
+      <c r="AF172" s="7"/>
+      <c r="AG172" s="7"/>
+      <c r="AH172" s="7"/>
+      <c r="AI172" s="7"/>
+      <c r="AJ172" s="7"/>
+      <c r="AK172" s="7"/>
+      <c r="AL172" s="7"/>
+      <c r="AM172" s="7"/>
+      <c r="AN172" s="7"/>
+      <c r="AO172" s="7"/>
+      <c r="AP172" s="7"/>
+      <c r="AQ172" s="7"/>
+      <c r="AR172" s="7"/>
+      <c r="AS172" s="7"/>
+      <c r="AT172" s="7"/>
+      <c r="AU172" s="7"/>
+      <c r="AV172" s="7"/>
+      <c r="AW172" s="7"/>
+      <c r="AX172" s="7"/>
+      <c r="AY172" s="7"/>
+      <c r="AZ172" s="15"/>
+      <c r="BA172" s="8">
+        <v>24</v>
+      </c>
+      <c r="BB172" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="2:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="9">
+        <v>2</v>
+      </c>
+      <c r="C173" s="6">
+        <v>2</v>
+      </c>
+      <c r="D173" s="6">
+        <v>9</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F173" s="6"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I173" s="6">
+        <v>1</v>
+      </c>
+      <c r="J173" s="6">
+        <v>2</v>
+      </c>
+      <c r="K173" s="6">
+        <v>3</v>
+      </c>
+      <c r="L173" s="6"/>
+      <c r="M173" s="6"/>
+      <c r="N173" s="6"/>
+      <c r="O173" s="6"/>
+      <c r="P173" s="6"/>
+      <c r="Q173" s="6">
+        <v>4</v>
+      </c>
+      <c r="R173" s="6">
+        <v>5</v>
+      </c>
+      <c r="S173" s="6">
+        <v>6</v>
+      </c>
+      <c r="T173" s="6"/>
+      <c r="U173" s="6"/>
+      <c r="V173" s="6"/>
+      <c r="W173" s="6"/>
+      <c r="X173" s="6"/>
+      <c r="Y173" s="6"/>
+      <c r="Z173" s="6">
+        <v>7</v>
+      </c>
+      <c r="AA173" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB173" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC173" s="6"/>
+      <c r="AD173" s="6"/>
+      <c r="AE173" s="6"/>
+      <c r="AF173" s="6"/>
+      <c r="AG173" s="6">
+        <v>8</v>
+      </c>
+      <c r="AH173" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI173" s="6"/>
+      <c r="AJ173" s="6"/>
+      <c r="AK173" s="6"/>
+      <c r="AL173" s="6"/>
+      <c r="AM173" s="6"/>
+      <c r="AN173" s="6"/>
+      <c r="AO173" s="6"/>
+      <c r="AP173" s="6"/>
+      <c r="AQ173" s="6"/>
+      <c r="AR173" s="6"/>
+      <c r="AS173" s="6"/>
+      <c r="AT173" s="6"/>
+      <c r="AU173" s="6"/>
+      <c r="AV173" s="6"/>
+      <c r="AW173" s="6"/>
+      <c r="AX173" s="6"/>
+      <c r="AY173" s="6"/>
+      <c r="AZ173" s="16"/>
+      <c r="BA173" s="9">
+        <v>27</v>
+      </c>
+      <c r="BB173" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174" spans="2:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="9">
+        <v>3</v>
+      </c>
+      <c r="C174" s="6">
+        <v>3</v>
+      </c>
+      <c r="D174" s="6">
+        <v>12</v>
+      </c>
+      <c r="E174" s="6"/>
+      <c r="F174" s="6"/>
+      <c r="G174" s="6"/>
+      <c r="H174" s="6"/>
+      <c r="I174" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J174" s="6"/>
+      <c r="K174" s="6"/>
+      <c r="L174" s="6"/>
+      <c r="M174" s="6"/>
+      <c r="N174" s="6">
+        <v>1</v>
+      </c>
+      <c r="O174" s="6">
+        <v>2</v>
+      </c>
+      <c r="P174" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q174" s="6"/>
+      <c r="R174" s="6"/>
+      <c r="S174" s="6"/>
+      <c r="T174" s="6"/>
+      <c r="U174" s="6"/>
+      <c r="V174" s="6"/>
+      <c r="W174" s="6">
+        <v>4</v>
+      </c>
+      <c r="X174" s="6">
+        <v>5</v>
+      </c>
+      <c r="Y174" s="6">
+        <v>6</v>
+      </c>
+      <c r="Z174" s="6"/>
+      <c r="AA174" s="6"/>
+      <c r="AB174" s="6"/>
+      <c r="AC174" s="6"/>
+      <c r="AD174" s="6">
+        <v>7</v>
+      </c>
+      <c r="AE174" s="6">
+        <v>8</v>
+      </c>
+      <c r="AF174" s="6">
+        <v>9</v>
+      </c>
+      <c r="AG174" s="6"/>
+      <c r="AH174" s="6"/>
+      <c r="AI174" s="6">
+        <v>10</v>
+      </c>
+      <c r="AJ174" s="6">
+        <v>11</v>
+      </c>
+      <c r="AK174" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL174" s="6"/>
+      <c r="AM174" s="6"/>
+      <c r="AN174" s="6"/>
+      <c r="AO174" s="6"/>
+      <c r="AP174" s="6"/>
+      <c r="AQ174" s="6"/>
+      <c r="AR174" s="6"/>
+      <c r="AS174" s="6"/>
+      <c r="AT174" s="6"/>
+      <c r="AU174" s="6"/>
+      <c r="AV174" s="6"/>
+      <c r="AW174" s="6"/>
+      <c r="AX174" s="6"/>
+      <c r="AY174" s="6"/>
+      <c r="AZ174" s="16"/>
+      <c r="BA174" s="9">
+        <v>29</v>
+      </c>
+      <c r="BB174" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="2:54" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C175" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D175" s="10"/>
+      <c r="E175" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F175" s="13">
+        <v>1</v>
+      </c>
+      <c r="G175" s="13">
+        <v>2</v>
+      </c>
+      <c r="H175" s="13">
+        <v>1</v>
+      </c>
+      <c r="I175" s="13">
+        <v>3</v>
+      </c>
+      <c r="J175" s="13">
+        <v>2</v>
+      </c>
+      <c r="K175" s="13">
+        <v>1</v>
+      </c>
+      <c r="L175" s="13">
+        <v>3</v>
+      </c>
+      <c r="M175" s="13">
+        <v>2</v>
+      </c>
+      <c r="N175" s="13">
+        <v>1</v>
+      </c>
+      <c r="O175" s="10">
+        <v>3</v>
+      </c>
+      <c r="P175" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q175" s="10"/>
+      <c r="R175" s="10"/>
+      <c r="S175" s="10"/>
+      <c r="T175" s="10"/>
+      <c r="U175" s="10"/>
+      <c r="V175" s="10"/>
+      <c r="W175" s="10"/>
+      <c r="X175" s="10"/>
+      <c r="Y175" s="10"/>
+      <c r="Z175" s="10"/>
+      <c r="AA175" s="10"/>
+      <c r="AB175" s="10"/>
+      <c r="AC175" s="10"/>
+      <c r="AD175" s="10"/>
+      <c r="AE175" s="10"/>
+      <c r="AF175" s="10"/>
+      <c r="AG175" s="10"/>
+      <c r="AH175" s="10"/>
+      <c r="AI175" s="10"/>
+      <c r="AJ175" s="10"/>
+      <c r="AK175" s="10"/>
+      <c r="AL175" s="10"/>
+      <c r="AM175" s="10"/>
+      <c r="AN175" s="10"/>
+      <c r="AO175" s="10"/>
+      <c r="AP175" s="10"/>
+      <c r="AQ175" s="10"/>
+      <c r="AR175" s="10"/>
+      <c r="AS175" s="10"/>
+      <c r="AT175" s="10"/>
+      <c r="AU175" s="10"/>
+      <c r="AV175" s="10"/>
+      <c r="AW175" s="10"/>
+      <c r="AX175" s="10"/>
+      <c r="AY175" s="10"/>
+      <c r="AZ175" s="17"/>
+      <c r="BA175" s="21">
+        <f>AVERAGE(BA172:BA174)</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="BB175" s="22">
+        <f>AVERAGE(BB172:BB174)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" spans="36:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ177" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
